--- a/Input_Enterprise_networks.xlsx
+++ b/Input_Enterprise_networks.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Company_cidr" sheetId="13" r:id="rId1"/>
     <sheet name="Sites_networks" sheetId="11" r:id="rId2"/>
     <sheet name="Application_identifier" sheetId="12" r:id="rId3"/>
-    <sheet name="DC_vlans(optional)" sheetId="10" r:id="rId4"/>
+    <sheet name="DC_vlans_optional" sheetId="10" r:id="rId4"/>
     <sheet name="NOT_TO_USE" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
@@ -999,7 +999,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1024,7 +1024,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1085,7 +1085,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1211,7 +1211,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Input_Enterprise_networks.xlsx
+++ b/Input_Enterprise_networks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17496" windowHeight="8436" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17496" windowHeight="8436" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Company_cidr" sheetId="13" r:id="rId1"/>
@@ -1023,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1210,7 +1210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>

--- a/Input_Enterprise_networks.xlsx
+++ b/Input_Enterprise_networks.xlsx
@@ -1024,7 +1024,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1043,34 +1043,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
         <v>86</v>
-      </c>
-      <c r="B2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" t="s">
         <v>85</v>
-      </c>
-      <c r="B3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
         <v>99</v>
-      </c>
-      <c r="B4" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" t="s">
         <v>84</v>
-      </c>
-      <c r="B5" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/Input_Enterprise_networks.xlsx
+++ b/Input_Enterprise_networks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17496" windowHeight="8436" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17496" windowHeight="8436" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Company_cidr" sheetId="13" r:id="rId1"/>
@@ -291,7 +291,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="104">
   <si>
     <t>Please do not delete any of these rows!</t>
   </si>
@@ -1023,7 +1023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -1084,15 +1084,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1117,6 +1117,9 @@
       <c r="B2" t="s">
         <v>95</v>
       </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
       <c r="D2" t="s">
         <v>78</v>
       </c>
@@ -1128,6 +1131,9 @@
       <c r="B3" t="s">
         <v>95</v>
       </c>
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
       <c r="D3" t="s">
         <v>78</v>
       </c>
@@ -1139,6 +1145,9 @@
       <c r="B4" t="s">
         <v>102</v>
       </c>
+      <c r="C4" t="s">
+        <v>102</v>
+      </c>
       <c r="D4" t="s">
         <v>78</v>
       </c>
@@ -1150,6 +1159,9 @@
       <c r="B5" t="s">
         <v>94</v>
       </c>
+      <c r="C5" t="s">
+        <v>94</v>
+      </c>
       <c r="D5" t="s">
         <v>78</v>
       </c>
@@ -1161,6 +1173,9 @@
       <c r="B6" t="s">
         <v>101</v>
       </c>
+      <c r="C6" t="s">
+        <v>101</v>
+      </c>
       <c r="D6" t="s">
         <v>78</v>
       </c>
@@ -1172,6 +1187,9 @@
       <c r="B7" t="s">
         <v>101</v>
       </c>
+      <c r="C7" t="s">
+        <v>101</v>
+      </c>
       <c r="D7" t="s">
         <v>78</v>
       </c>
@@ -1181,6 +1199,9 @@
         <v>97</v>
       </c>
       <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" t="s">
         <v>98</v>
       </c>
       <c r="D8" t="s">

--- a/Input_Enterprise_networks.xlsx
+++ b/Input_Enterprise_networks.xlsx
@@ -291,7 +291,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="104">
   <si>
     <t>Please do not delete any of these rows!</t>
   </si>
@@ -1085,7 +1085,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1145,9 +1145,6 @@
       <c r="B4" t="s">
         <v>102</v>
       </c>
-      <c r="C4" t="s">
-        <v>102</v>
-      </c>
       <c r="D4" t="s">
         <v>78</v>
       </c>
@@ -1159,9 +1156,6 @@
       <c r="B5" t="s">
         <v>94</v>
       </c>
-      <c r="C5" t="s">
-        <v>94</v>
-      </c>
       <c r="D5" t="s">
         <v>78</v>
       </c>
@@ -1199,9 +1193,6 @@
         <v>97</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" t="s">
         <v>98</v>
       </c>
       <c r="D8" t="s">

--- a/Input_Enterprise_networks.xlsx
+++ b/Input_Enterprise_networks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17496" windowHeight="8436" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17496" windowHeight="8436" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Company_cidr" sheetId="13" r:id="rId1"/>
@@ -125,7 +125,19 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Note: if multiple subnets per site, please repeat new line with same site_identifier</t>
+          <t xml:space="preserve">Note: if multiple subnets per site, please repeat new line with same site_identifier
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>IMPORTANT: DOES NOT support overlaping summarization you MUST exclude manually the range</t>
         </r>
       </text>
     </comment>
@@ -291,7 +303,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="109">
   <si>
     <t>Please do not delete any of these rows!</t>
   </si>
@@ -545,12 +557,6 @@
     <t>lifecycle</t>
   </si>
   <si>
-    <t>10.0.0.0/8</t>
-  </si>
-  <si>
-    <t>172.16.0.0/12</t>
-  </si>
-  <si>
     <t>172.28.0.0/16</t>
   </si>
   <si>
@@ -560,9 +566,6 @@
     <t>Insight_internal</t>
   </si>
   <si>
-    <t>Insight_others</t>
-  </si>
-  <si>
     <t>172.28.32.9</t>
   </si>
   <si>
@@ -603,13 +606,37 @@
   </si>
   <si>
     <t>172.28.34.10</t>
+  </si>
+  <si>
+    <t>172.16.0.0/13</t>
+  </si>
+  <si>
+    <t>172.24.0.0/16</t>
+  </si>
+  <si>
+    <t>172.25.0.0/16</t>
+  </si>
+  <si>
+    <t>172.26.0.0/16</t>
+  </si>
+  <si>
+    <t>172.27.0.0/16</t>
+  </si>
+  <si>
+    <t>172.29.0.0/16</t>
+  </si>
+  <si>
+    <t>172.30.0.0/16</t>
+  </si>
+  <si>
+    <t>172.31.0.0/16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -654,6 +681,14 @@
     <font>
       <i/>
       <u/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -1021,10 +1056,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1043,34 +1078,82 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1084,7 +1167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -1112,13 +1195,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
         <v>78</v>
@@ -1126,13 +1209,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
         <v>78</v>
@@ -1140,10 +1223,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
         <v>78</v>
@@ -1151,10 +1234,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
         <v>78</v>
@@ -1162,13 +1245,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
         <v>78</v>
@@ -1176,13 +1259,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s">
         <v>78</v>
@@ -1190,10 +1273,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
         <v>78</v>

--- a/Input_Enterprise_networks.xlsx
+++ b/Input_Enterprise_networks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17496" windowHeight="8436" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17496" windowHeight="8436" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Company_cidr" sheetId="13" r:id="rId1"/>
@@ -1058,14 +1058,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -1305,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Input_Enterprise_networks.xlsx
+++ b/Input_Enterprise_networks.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2E09EB-69D3-4A7B-A229-2BC11651224C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17496" windowHeight="8436" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Company_cidr" sheetId="13" r:id="rId1"/>
@@ -17,22 +18,28 @@
     <definedName name="Domain">OFFSET(#REF!, 0, 0,COUNT(IF(#REF!="", "", 1)), 1)</definedName>
     <definedName name="tenantnames">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -71,12 +78,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -92,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -146,12 +153,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -165,7 +172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -190,7 +197,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -214,7 +221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -244,12 +251,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -263,7 +270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -303,7 +310,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="97">
   <si>
     <t>Please do not delete any of these rows!</t>
   </si>
@@ -498,42 +505,6 @@
   </si>
   <si>
     <t>Company_network_range</t>
-  </si>
-  <si>
-    <t>Information to gather:</t>
-  </si>
-  <si>
-    <t>NXOS</t>
-  </si>
-  <si>
-    <t>IOS</t>
-  </si>
-  <si>
-    <t>gather Vlan id and names</t>
-  </si>
-  <si>
-    <t xml:space="preserve">show vlan </t>
-  </si>
-  <si>
-    <t>show vlan</t>
-  </si>
-  <si>
-    <t>show ip route direct</t>
-  </si>
-  <si>
-    <t>show ip route connected</t>
-  </si>
-  <si>
-    <t>gather SVIs</t>
-  </si>
-  <si>
-    <t>gather subnets</t>
-  </si>
-  <si>
-    <t>show ip interface brief vrf all</t>
-  </si>
-  <si>
-    <t>show ip interface brief</t>
   </si>
   <si>
     <t>prod</t>
@@ -635,7 +606,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1030,11 +1001,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1055,11 +1026,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1069,90 +1040,90 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1163,11 +1134,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1186,99 +1157,99 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1288,9 +1259,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
-            <xm:f>NOT_TO_USE!$E$56:$E$57</xm:f>
+            <xm:f>NOT_TO_USE!$E$24:$E$25</xm:f>
           </x14:formula1>
           <xm:sqref>D2:D1048576</xm:sqref>
         </x14:dataValidation>
@@ -1301,10 +1272,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1319,7 +1290,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1570,11 +1541,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E212"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A2:E180"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56:E57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1592,181 +1563,127 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+    <row r="25" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
         <v>66</v>
       </c>
-      <c r="C7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E56" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E57" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A194" t="e">
-        <f>LOOKUP(2,1/(COUNTIF($A$193:A193,#REF!)=0),#REF!)</f>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" t="e">
+        <f>LOOKUP(2,1/(COUNTIF($A$161:A161,#REF!)=0),#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A195" t="e">
-        <f>LOOKUP(2,1/(COUNTIF($A$193:A194,#REF!)=0),#REF!)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A196" t="e">
-        <f>LOOKUP(2,1/(COUNTIF($A$193:A195,#REF!)=0),#REF!)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A197" t="e">
-        <f>LOOKUP(2,1/(COUNTIF($A$193:A196,#REF!)=0),#REF!)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A198" t="e">
-        <f>LOOKUP(2,1/(COUNTIF($A$193:A197,#REF!)=0),#REF!)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A199" t="e">
-        <f>LOOKUP(2,1/(COUNTIF($A$193:A198,#REF!)=0),#REF!)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A200" t="e">
-        <f>LOOKUP(2,1/(COUNTIF($A$193:A199,#REF!)=0),#REF!)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A201" t="e">
-        <f>LOOKUP(2,1/(COUNTIF($A$193:A200,#REF!)=0),#REF!)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A202" t="e">
-        <f>LOOKUP(2,1/(COUNTIF($A$193:A201,#REF!)=0),#REF!)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A203" t="e">
-        <f>LOOKUP(2,1/(COUNTIF($A$193:A202,#REF!)=0),#REF!)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A204" t="e">
-        <f>LOOKUP(2,1/(COUNTIF($A$193:A203,#REF!)=0),#REF!)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A205" t="e">
-        <f>LOOKUP(2,1/(COUNTIF($A$193:A204,#REF!)=0),#REF!)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A206" t="e">
-        <f>LOOKUP(2,1/(COUNTIF($A$193:A205,#REF!)=0),#REF!)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A207" t="e">
-        <f>LOOKUP(2,1/(COUNTIF($A$193:A206,#REF!)=0),#REF!)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A208" t="e">
-        <f>LOOKUP(2,1/(COUNTIF($A$193:A207,#REF!)=0),#REF!)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A209" t="e">
-        <f>LOOKUP(2,1/(COUNTIF($A$193:A208,#REF!)=0),#REF!)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A210" t="e">
-        <f>LOOKUP(2,1/(COUNTIF($A$193:A209,#REF!)=0),#REF!)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A211" t="e">
-        <f>LOOKUP(2,1/(COUNTIF($A$193:A210,#REF!)=0),#REF!)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A212" t="e">
-        <f>LOOKUP(2,1/(COUNTIF($A$193:A211,#REF!)=0),#REF!)</f>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" t="e">
+        <f>LOOKUP(2,1/(COUNTIF($A$161:A162,#REF!)=0),#REF!)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" t="e">
+        <f>LOOKUP(2,1/(COUNTIF($A$161:A163,#REF!)=0),#REF!)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" t="e">
+        <f>LOOKUP(2,1/(COUNTIF($A$161:A164,#REF!)=0),#REF!)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" t="e">
+        <f>LOOKUP(2,1/(COUNTIF($A$161:A165,#REF!)=0),#REF!)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" t="e">
+        <f>LOOKUP(2,1/(COUNTIF($A$161:A166,#REF!)=0),#REF!)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" t="e">
+        <f>LOOKUP(2,1/(COUNTIF($A$161:A167,#REF!)=0),#REF!)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" t="e">
+        <f>LOOKUP(2,1/(COUNTIF($A$161:A168,#REF!)=0),#REF!)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" t="e">
+        <f>LOOKUP(2,1/(COUNTIF($A$161:A169,#REF!)=0),#REF!)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" t="e">
+        <f>LOOKUP(2,1/(COUNTIF($A$161:A170,#REF!)=0),#REF!)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" t="e">
+        <f>LOOKUP(2,1/(COUNTIF($A$161:A171,#REF!)=0),#REF!)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" t="e">
+        <f>LOOKUP(2,1/(COUNTIF($A$161:A172,#REF!)=0),#REF!)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" t="e">
+        <f>LOOKUP(2,1/(COUNTIF($A$161:A173,#REF!)=0),#REF!)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" t="e">
+        <f>LOOKUP(2,1/(COUNTIF($A$161:A174,#REF!)=0),#REF!)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" t="e">
+        <f>LOOKUP(2,1/(COUNTIF($A$161:A175,#REF!)=0),#REF!)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" t="e">
+        <f>LOOKUP(2,1/(COUNTIF($A$161:A176,#REF!)=0),#REF!)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" t="e">
+        <f>LOOKUP(2,1/(COUNTIF($A$161:A177,#REF!)=0),#REF!)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" t="e">
+        <f>LOOKUP(2,1/(COUNTIF($A$161:A178,#REF!)=0),#REF!)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" t="e">
+        <f>LOOKUP(2,1/(COUNTIF($A$161:A179,#REF!)=0),#REF!)</f>
         <v>#DIV/0!</v>
       </c>
     </row>

--- a/Input_Enterprise_networks.xlsx
+++ b/Input_Enterprise_networks.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2E09EB-69D3-4A7B-A229-2BC11651224C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580CBB63-7BAF-4483-8D38-DA28CD54386B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Company_cidr" sheetId="13" r:id="rId1"/>
@@ -26,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -310,7 +312,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="137">
   <si>
     <t>Please do not delete any of these rows!</t>
   </si>
@@ -531,9 +533,6 @@
     <t>172.28.0.0/16</t>
   </si>
   <si>
-    <t>Insight_lab</t>
-  </si>
-  <si>
     <t>Insight_internal</t>
   </si>
   <si>
@@ -601,13 +600,136 @@
   </si>
   <si>
     <t>172.31.0.0/16</t>
+  </si>
+  <si>
+    <t>shared svc</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>dhcp</t>
+  </si>
+  <si>
+    <t>ntp</t>
+  </si>
+  <si>
+    <t>dns</t>
+  </si>
+  <si>
+    <t>syslog</t>
+  </si>
+  <si>
+    <t>patch</t>
+  </si>
+  <si>
+    <t>backup</t>
+  </si>
+  <si>
+    <t>192.168.99.0/24</t>
+  </si>
+  <si>
+    <t>ACI_web_epg</t>
+  </si>
+  <si>
+    <t>192.168.100.0/24</t>
+  </si>
+  <si>
+    <t>ACI_app_epg</t>
+  </si>
+  <si>
+    <t>ACI_db_epg</t>
+  </si>
+  <si>
+    <t>192.168.111.0/24</t>
+  </si>
+  <si>
+    <t>192.168.200.0/24</t>
+  </si>
+  <si>
+    <t>ACI_AD_epg</t>
+  </si>
+  <si>
+    <t>192.168.201.0/24</t>
+  </si>
+  <si>
+    <t>ACI_monitoring_epg</t>
+  </si>
+  <si>
+    <t>192.168.99.22</t>
+  </si>
+  <si>
+    <t>acme-app</t>
+  </si>
+  <si>
+    <t>192.168.99.20</t>
+  </si>
+  <si>
+    <t>acme-web</t>
+  </si>
+  <si>
+    <t>acme-application</t>
+  </si>
+  <si>
+    <t>acme-db</t>
+  </si>
+  <si>
+    <t>192.168.200.2</t>
+  </si>
+  <si>
+    <t>ACI_lab_DNS</t>
+  </si>
+  <si>
+    <t>192.168.202.0/24</t>
+  </si>
+  <si>
+    <t>ACI_openmrs_epg</t>
+  </si>
+  <si>
+    <t>192.168.100.20</t>
+  </si>
+  <si>
+    <t>192.168.111.20</t>
+  </si>
+  <si>
+    <t>192.168.202.20</t>
+  </si>
+  <si>
+    <t>OpenMRS</t>
+  </si>
+  <si>
+    <t>192.168.202.30</t>
+  </si>
+  <si>
+    <t>192.168.202.40</t>
+  </si>
+  <si>
+    <t>openmrs-web</t>
+  </si>
+  <si>
+    <t>openmrs-app</t>
+  </si>
+  <si>
+    <t>openmrs-db</t>
+  </si>
+  <si>
+    <t>10.0.0.0/8</t>
+  </si>
+  <si>
+    <t>192.168.0.0/16</t>
+  </si>
+  <si>
+    <t>172.16.0.0/12</t>
+  </si>
+  <si>
+    <t>Insight_tempe_lab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -665,6 +787,12 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -713,10 +841,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1002,20 +1131,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1027,18 +1171,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>69</v>
       </c>
@@ -1046,84 +1191,100 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>84</v>
+      </c>
+      <c r="B13" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1135,21 +1296,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1163,96 +1324,209 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
         <v>78</v>
-      </c>
-      <c r="B5" t="s">
-        <v>79</v>
       </c>
       <c r="D5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" t="s">
         <v>82</v>
-      </c>
-      <c r="B8" t="s">
-        <v>83</v>
       </c>
       <c r="D8" t="s">
         <v>66</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -1273,19 +1547,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1293,7 +1567,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1301,7 +1575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1309,7 +1583,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1317,7 +1591,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1325,7 +1599,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1333,7 +1607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1341,7 +1615,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1349,7 +1623,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1357,7 +1631,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1365,7 +1639,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1373,7 +1647,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1381,7 +1655,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1389,7 +1663,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1397,7 +1671,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1405,7 +1679,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1413,7 +1687,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1421,7 +1695,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -1429,7 +1703,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1437,7 +1711,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -1445,7 +1719,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -1453,7 +1727,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -1461,7 +1735,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1469,7 +1743,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -1477,7 +1751,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -1485,7 +1759,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -1493,7 +1767,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -1501,7 +1775,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -1509,7 +1783,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -1517,7 +1791,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -1525,12 +1799,60 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>62</v>
       </c>
       <c r="B31" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1542,146 +1864,190 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A2:E180"/>
+  <dimension ref="A2:I180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="e">
         <f>LOOKUP(2,1/(COUNTIF($A$161:A161,#REF!)=0),#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="e">
         <f>LOOKUP(2,1/(COUNTIF($A$161:A162,#REF!)=0),#REF!)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="e">
         <f>LOOKUP(2,1/(COUNTIF($A$161:A163,#REF!)=0),#REF!)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="e">
         <f>LOOKUP(2,1/(COUNTIF($A$161:A164,#REF!)=0),#REF!)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="e">
         <f>LOOKUP(2,1/(COUNTIF($A$161:A165,#REF!)=0),#REF!)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="e">
         <f>LOOKUP(2,1/(COUNTIF($A$161:A166,#REF!)=0),#REF!)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="e">
         <f>LOOKUP(2,1/(COUNTIF($A$161:A167,#REF!)=0),#REF!)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="e">
         <f>LOOKUP(2,1/(COUNTIF($A$161:A168,#REF!)=0),#REF!)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="e">
         <f>LOOKUP(2,1/(COUNTIF($A$161:A169,#REF!)=0),#REF!)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="e">
         <f>LOOKUP(2,1/(COUNTIF($A$161:A170,#REF!)=0),#REF!)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="e">
         <f>LOOKUP(2,1/(COUNTIF($A$161:A171,#REF!)=0),#REF!)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="e">
         <f>LOOKUP(2,1/(COUNTIF($A$161:A172,#REF!)=0),#REF!)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="e">
         <f>LOOKUP(2,1/(COUNTIF($A$161:A173,#REF!)=0),#REF!)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="e">
         <f>LOOKUP(2,1/(COUNTIF($A$161:A174,#REF!)=0),#REF!)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="e">
         <f>LOOKUP(2,1/(COUNTIF($A$161:A175,#REF!)=0),#REF!)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="e">
         <f>LOOKUP(2,1/(COUNTIF($A$161:A176,#REF!)=0),#REF!)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="e">
         <f>LOOKUP(2,1/(COUNTIF($A$161:A177,#REF!)=0),#REF!)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="e">
         <f>LOOKUP(2,1/(COUNTIF($A$161:A178,#REF!)=0),#REF!)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="e">
         <f>LOOKUP(2,1/(COUNTIF($A$161:A179,#REF!)=0),#REF!)</f>
         <v>#DIV/0!</v>

--- a/Input_Enterprise_networks.xlsx
+++ b/Input_Enterprise_networks.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580CBB63-7BAF-4483-8D38-DA28CD54386B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5895E20D-C574-4DC7-99D7-8D8B5C956AF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30870" yWindow="3300" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Company_cidr" sheetId="13" r:id="rId1"/>
@@ -312,7 +312,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="166">
   <si>
     <t>Please do not delete any of these rows!</t>
   </si>
@@ -723,6 +723,93 @@
   </si>
   <si>
     <t>Insight_tempe_lab</t>
+  </si>
+  <si>
+    <t>172.28.40.16/29</t>
+  </si>
+  <si>
+    <t>172.28.40.24/29</t>
+  </si>
+  <si>
+    <t>EN_Wireless_Users_44</t>
+  </si>
+  <si>
+    <t>172.28.44.0/24</t>
+  </si>
+  <si>
+    <t>10.248.0.0/16</t>
+  </si>
+  <si>
+    <t>SDA_POV</t>
+  </si>
+  <si>
+    <t>10.123.0.0/16</t>
+  </si>
+  <si>
+    <t>10.124.0.0/16</t>
+  </si>
+  <si>
+    <t>10.125.0.0/16</t>
+  </si>
+  <si>
+    <t>10.126.0.0/16</t>
+  </si>
+  <si>
+    <t>10.127.0.0/16</t>
+  </si>
+  <si>
+    <t>Wireless_net1</t>
+  </si>
+  <si>
+    <t>DNAC_mgmt</t>
+  </si>
+  <si>
+    <t>Wireless_net3</t>
+  </si>
+  <si>
+    <t>SilverPeak_mgmt</t>
+  </si>
+  <si>
+    <t>172.17.25.0/24</t>
+  </si>
+  <si>
+    <t>EMEA_servers</t>
+  </si>
+  <si>
+    <t>172.18.153.0/24</t>
+  </si>
+  <si>
+    <t>Singapore_servers</t>
+  </si>
+  <si>
+    <t>172.19.120.0/24</t>
+  </si>
+  <si>
+    <t>172.23.107.0/24</t>
+  </si>
+  <si>
+    <t>APAC_servers</t>
+  </si>
+  <si>
+    <t>172.24.32.96/29</t>
+  </si>
+  <si>
+    <t>ATL_servers</t>
+  </si>
+  <si>
+    <t>APIC-EM_System</t>
+  </si>
+  <si>
+    <t>172.30.254.0/24</t>
+  </si>
+  <si>
+    <t>172.31.150.0/23</t>
+  </si>
+  <si>
+    <t>172.28.40.0/29</t>
+  </si>
+  <si>
+    <t>172.28.40.8/29</t>
   </si>
 </sst>
 </file>
@@ -1133,13 +1220,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -1547,10 +1632,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1609,253 +1694,406 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>165</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>144</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>147</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>122</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B48" t="s">
         <v>123</v>
       </c>
     </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>152</v>
+      </c>
+      <c r="B49" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>154</v>
+      </c>
+      <c r="B50" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>156</v>
+      </c>
+      <c r="B51" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>157</v>
+      </c>
+      <c r="B52" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>157</v>
+      </c>
+      <c r="B53" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>159</v>
+      </c>
+      <c r="B54" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>162</v>
+      </c>
+      <c r="B55" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>163</v>
+      </c>
+      <c r="B56" t="s">
+        <v>153</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/Input_Enterprise_networks.xlsx
+++ b/Input_Enterprise_networks.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5895E20D-C574-4DC7-99D7-8D8B5C956AF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751148B7-991D-4158-AEB3-E4BCA11A2744}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30870" yWindow="3300" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11955" yWindow="1140" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Company_cidr" sheetId="13" r:id="rId1"/>
@@ -312,7 +312,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="172">
   <si>
     <t>Please do not delete any of these rows!</t>
   </si>
@@ -810,6 +810,24 @@
   </si>
   <si>
     <t>172.28.40.8/29</t>
+  </si>
+  <si>
+    <t>192.168.100.0/22</t>
+  </si>
+  <si>
+    <t>192.168.104.0/21</t>
+  </si>
+  <si>
+    <t>192.168.112.0/20</t>
+  </si>
+  <si>
+    <t>192.168.128.0/18</t>
+  </si>
+  <si>
+    <t>192.168.192.0/21</t>
+  </si>
+  <si>
+    <t>192.168.200.0/23</t>
   </si>
 </sst>
 </file>
@@ -1220,7 +1238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1256,16 +1274,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1286,89 +1304,153 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>22</v>
+      <c r="B11" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>24</v>
+      <c r="B12" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>84</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B21" t="s">
         <v>83</v>
       </c>
     </row>
